--- a/DEK_PVC_Produkce.xlsx
+++ b/DEK_PVC_Produkce.xlsx
@@ -153,7 +153,7 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -179,10 +179,10 @@
         <v>45536</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>42121</v>
+        <v>45130</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>8847</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -190,10 +190,10 @@
         <v>45537</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>42435</v>
+        <v>46685</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>10792</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -201,10 +201,10 @@
         <v>45538</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>43117</v>
+        <v>45769</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>11637</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -212,10 +212,10 @@
         <v>45539</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>46198</v>
+        <v>47391</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>10453</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -223,10 +223,10 @@
         <v>45540</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>43462</v>
+        <v>47433</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>8610</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -234,10 +234,10 @@
         <v>45541</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>43267</v>
+        <v>46184</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>9836</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -245,10 +245,10 @@
         <v>45542</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>40399</v>
+        <v>49555</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>11728</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,10 +256,10 @@
         <v>45543</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>44532</v>
+        <v>48385</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>8996</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -267,10 +267,10 @@
         <v>45544</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>46998</v>
+        <v>49117</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>10743</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -278,10 +278,10 @@
         <v>45545</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>43774</v>
+        <v>49843</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>9108</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,10 +289,10 @@
         <v>45546</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>45488</v>
+        <v>47904</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>9412</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,10 +300,10 @@
         <v>45547</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>41146</v>
+        <v>45474</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>11213</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,10 +311,10 @@
         <v>45548</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>40460</v>
+        <v>46082</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>8384</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,10 +322,10 @@
         <v>45549</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>43472</v>
+        <v>47558</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>10524</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,10 +333,10 @@
         <v>45550</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>40537</v>
+        <v>47047</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>10995</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,10 +344,10 @@
         <v>45551</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>46142</v>
+        <v>47747</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>8898</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,10 +355,10 @@
         <v>45552</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>42159</v>
+        <v>45975</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>9426</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,10 +366,10 @@
         <v>45553</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>40705</v>
+        <v>46806</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>8117</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,10 +377,10 @@
         <v>45554</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>42279</v>
+        <v>45189</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>9539</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -388,10 +388,10 @@
         <v>45555</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>43199</v>
+        <v>47734</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>8976</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,10 +399,10 @@
         <v>45556</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>41163</v>
+        <v>48005</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>10926</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,10 +410,10 @@
         <v>45557</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>47198</v>
+        <v>49658</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>10464</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,10 +421,10 @@
         <v>45558</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>44061</v>
+        <v>46899</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>9240</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,10 +432,10 @@
         <v>45559</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>47268</v>
+        <v>46267</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>9905</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,10 +443,10 @@
         <v>45560</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>43531</v>
+        <v>46528</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>8255</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,10 +454,10 @@
         <v>45561</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>45982</v>
+        <v>48202</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>11437</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,10 +465,10 @@
         <v>45562</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>46612</v>
+        <v>48556</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>9659</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,10 +476,10 @@
         <v>45563</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>40477</v>
+        <v>48890</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>8812</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,10 +487,10 @@
         <v>45564</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>43213</v>
+        <v>45646</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>9933</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,10 +498,10 @@
         <v>45565</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>43648</v>
+        <v>47888</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>9434</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,10 +509,10 @@
         <v>45566</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>46635</v>
+        <v>47435</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>9568</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,10 +520,10 @@
         <v>45567</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>45278</v>
+        <v>45600</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>9120</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,10 +531,10 @@
         <v>45568</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>42316</v>
+        <v>47363</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>8108</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,10 +542,10 @@
         <v>45569</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>45689</v>
+        <v>47061</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>9915</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,10 +553,10 @@
         <v>45570</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>43880</v>
+        <v>45241</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>8544</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,10 +564,10 @@
         <v>45571</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>41369</v>
+        <v>47041</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>10487</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,10 +575,10 @@
         <v>45572</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>42214</v>
+        <v>47824</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>10131</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,10 +586,10 @@
         <v>45573</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>40167</v>
+        <v>47612</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>10679</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,10 +597,10 @@
         <v>45574</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>41262</v>
+        <v>46363</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>8908</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,10 +608,10 @@
         <v>45575</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>43864</v>
+        <v>46478</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>10652</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,10 +619,10 @@
         <v>45576</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>42426</v>
+        <v>47556</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>9709</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,10 +630,10 @@
         <v>45577</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>44933</v>
+        <v>45775</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>10497</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,10 +641,10 @@
         <v>45578</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>44912</v>
+        <v>49014</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>11182</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,10 +652,10 @@
         <v>45579</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>40434</v>
+        <v>45034</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>8637</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,10 +663,10 @@
         <v>45580</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>47121</v>
+        <v>48152</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>10631</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,10 +674,10 @@
         <v>45581</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>44539</v>
+        <v>46955</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>11233</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,10 +685,10 @@
         <v>45582</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>43351</v>
+        <v>46585</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>11430</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,10 +696,10 @@
         <v>45583</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>46115</v>
+        <v>48943</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>9039</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,10 +707,10 @@
         <v>45584</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>44564</v>
+        <v>48073</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>9282</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,10 +718,10 @@
         <v>45585</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>46208</v>
+        <v>46021</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>11152</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,10 +729,10 @@
         <v>45586</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>47625</v>
+        <v>48461</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>11260</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,10 +740,10 @@
         <v>45587</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>45419</v>
+        <v>47613</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>9504</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,10 +751,10 @@
         <v>45588</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>43280</v>
+        <v>48843</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>10450</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,10 +762,10 @@
         <v>45589</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>42951</v>
+        <v>45130</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>11535</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,10 +773,10 @@
         <v>45590</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>41524</v>
+        <v>46685</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>10307</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,10 +784,10 @@
         <v>45591</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>47535</v>
+        <v>45769</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>9581</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,10 +795,10 @@
         <v>45592</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>43018</v>
+        <v>47391</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>11150</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,10 +806,10 @@
         <v>45593</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>47885</v>
+        <v>47433</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>10697</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,10 +817,10 @@
         <v>45594</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>42517</v>
+        <v>46184</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>11278</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,10 +828,10 @@
         <v>45595</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>45900</v>
+        <v>49555</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>8937</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,10 +839,10 @@
         <v>45596</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>47038</v>
+        <v>48385</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>10300</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
